--- a/public/assets/tempfiles/studSubjectAlloc.xlsx
+++ b/public/assets/tempfiles/studSubjectAlloc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="8">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -31,10 +31,19 @@
     <t xml:space="preserve">paper_code</t>
   </si>
   <si>
-    <t xml:space="preserve">0001</t>
+    <t xml:space="preserve">P2</t>
   </si>
   <si>
-    <t xml:space="preserve">MOCK_TEST</t>
+    <t xml:space="preserve">121212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222213</t>
   </si>
 </sst>
 </file>
@@ -110,13 +119,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -136,13 +149,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:B58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H55" activeCellId="0" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="12.68"/>
@@ -160,8 +173,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2020212</v>
+      <c r="A2" s="2" t="n">
+        <v>2020214</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -171,8 +184,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2020204</v>
+      <c r="A3" s="2" t="n">
+        <v>2020215</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -182,8 +195,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>2020140</v>
+      <c r="A4" s="2" t="n">
+        <v>2020216</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -193,8 +206,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2020111</v>
+      <c r="A5" s="2" t="n">
+        <v>2020217</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -204,8 +217,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>2020125</v>
+      <c r="A6" s="2" t="n">
+        <v>2020218</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -215,8 +228,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>2020124</v>
+      <c r="A7" s="2" t="n">
+        <v>2020219</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -226,8 +239,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>2020201</v>
+      <c r="A8" s="2" t="n">
+        <v>2020220</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -237,8 +250,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>2020136</v>
+      <c r="A9" s="2" t="n">
+        <v>2020221</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -248,8 +261,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>2020137</v>
+      <c r="A10" s="2" t="n">
+        <v>2020222</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -259,8 +272,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>2020149</v>
+      <c r="A11" s="2" t="n">
+        <v>2020223</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -270,8 +283,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>2020153</v>
+      <c r="A12" s="2" t="n">
+        <v>2020224</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -281,509 +294,476 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>2020114</v>
+      <c r="A13" s="2" t="n">
+        <v>2020214</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>2020106</v>
+      <c r="A14" s="2" t="n">
+        <v>2020215</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>2020126</v>
+      <c r="A15" s="2" t="n">
+        <v>2020216</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>2020108</v>
+      <c r="A16" s="2" t="n">
+        <v>2020217</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>2020205</v>
+      <c r="A17" s="2" t="n">
+        <v>2020218</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>2020216</v>
+      <c r="A18" s="2" t="n">
+        <v>2020219</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>2020143</v>
+      <c r="A19" s="2" t="n">
+        <v>2020220</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>2020150</v>
+      <c r="A20" s="2" t="n">
+        <v>2020221</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>2020107</v>
+      <c r="A21" s="2" t="n">
+        <v>2020222</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>2020132</v>
+      <c r="A22" s="2" t="n">
+        <v>2020223</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>2020138</v>
+      <c r="A23" s="2" t="n">
+        <v>2020224</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>2020141</v>
+      <c r="A24" s="2" t="n">
+        <v>2020225</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>2020121</v>
+      <c r="A25" s="2" t="n">
+        <v>2020226</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>2020161</v>
+      <c r="A26" s="2" t="n">
+        <v>2020227</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>2020147</v>
+      <c r="A27" s="2" t="n">
+        <v>2020228</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>2020103</v>
+      <c r="A28" s="2" t="n">
+        <v>2020229</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>2020116</v>
+      <c r="A29" s="2" t="n">
+        <v>2020230</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>2020118</v>
+      <c r="A30" s="2" t="n">
+        <v>2020231</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>2020120</v>
+      <c r="A31" s="2" t="n">
+        <v>2020232</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>2020128</v>
+      <c r="A32" s="2" t="n">
+        <v>2020233</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>2020145</v>
+      <c r="A33" s="2" t="n">
+        <v>2020234</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>2020134</v>
+      <c r="A34" s="2" t="n">
+        <v>2020235</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>2020160</v>
+      <c r="A35" s="2" t="n">
+        <v>2020236</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>2020122</v>
+      <c r="A36" s="2" t="n">
+        <v>2020237</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>2020104</v>
+      <c r="A37" s="2" t="n">
+        <v>2020238</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>2020206</v>
+      <c r="A38" s="2" t="n">
+        <v>2020239</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>2020213</v>
+      <c r="A39" s="2" t="n">
+        <v>2020240</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>2020133</v>
+      <c r="A40" s="2" t="n">
+        <v>2020225</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>2020110</v>
+      <c r="A41" s="2" t="n">
+        <v>2020226</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>2020152</v>
+      <c r="A42" s="2" t="n">
+        <v>2020227</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>2020130</v>
+      <c r="A43" s="2" t="n">
+        <v>2020228</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>2020155</v>
+      <c r="A44" s="2" t="n">
+        <v>2020229</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>2020158</v>
+      <c r="A45" s="2" t="n">
+        <v>2020230</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>2020162</v>
+      <c r="A46" s="2" t="n">
+        <v>2020231</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>2020109</v>
+      <c r="A47" s="2" t="n">
+        <v>2020232</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>2020142</v>
+      <c r="A48" s="2" t="n">
+        <v>2020233</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>2020115</v>
+      <c r="A49" s="2" t="n">
+        <v>2020234</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>2020129</v>
+      <c r="A50" s="2" t="n">
+        <v>2020235</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>2020131</v>
+      <c r="A51" s="2" t="n">
+        <v>2020236</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>2020144</v>
+      <c r="A52" s="2" t="n">
+        <v>2020237</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>2020123</v>
+      <c r="A53" s="2" t="n">
+        <v>2020238</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>2020127</v>
+      <c r="A54" s="2" t="n">
+        <v>2020239</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>2020159</v>
+      <c r="A55" s="2" t="n">
+        <v>2020240</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>2020207</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>2020117</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>2020154</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/tempfiles/studSubjectAlloc.xlsx
+++ b/public/assets/tempfiles/studSubjectAlloc.xlsx
@@ -31,10 +31,10 @@
     <t xml:space="preserve">paper_code</t>
   </si>
   <si>
-    <t xml:space="preserve">GPK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEF305</t>
+    <t xml:space="preserve">0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001</t>
   </si>
 </sst>
 </file>
@@ -233,13 +233,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="12.68"/>
@@ -258,7 +258,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>9999999999</v>
+        <v>1010101011</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -266,10 +266,6 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
